--- a/web/public/templates/community_import_template.xlsx
+++ b/web/public/templates/community_import_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bugco/Desktop/Vue/reBestHouse/web/public/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC571A67-39C7-D04D-8932-6AC2B058FE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F1019A-4545-6543-BF82-F65E5FA14FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="15780" xr2:uid="{9EA13CB0-40C5-4349-8257-5A5580FBA9C9}"/>
+    <workbookView xWindow="6180" yWindow="500" windowWidth="24460" windowHeight="15780" xr2:uid="{9EA13CB0-40C5-4349-8257-5A5580FBA9C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,89 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={8C57E628-D146-CD4E-A6FF-7F6380D205B6}</author>
+    <author>tc={ED0A3ACE-36D1-414E-AB10-697DE4F4F867}</author>
+    <author>tc={4B6E0766-6359-A94D-80B3-B5A072BAA3A5}</author>
+    <author>tc={782F2DC3-2A15-1344-B201-40F082B30719}</author>
+    <author>tc={C0F53C5F-A4B6-E944-AB37-2D40F83B27B9}</author>
+    <author>tc={96720DDB-E74E-3F47-9177-B00C64D1A29D}</author>
+    <author>tc={81A2E5F7-E683-2748-888D-ECAD47E5EEA7}</author>
+    <author>tc={075C307F-4675-9440-8E98-141913CDB323}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{8C57E628-D146-CD4E-A6FF-7F6380D205B6}">
+      <text>
+        <t xml:space="preserve">[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    小区名/必填 </t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{ED0A3ACE-36D1-414E-AB10-697DE4F4F867}">
+      <text>
+        <t xml:space="preserve">[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+     区域/必填 </t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{4B6E0766-6359-A94D-80B3-B5A072BAA3A5}">
+      <text>
+        <t xml:space="preserve">[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+     商圈/必填 </t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{782F2DC3-2A15-1344-B201-40F082B30719}">
+      <text>
+        <t xml:space="preserve">[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+     板楼/塔楼/板塔结合 </t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="4" shapeId="0" xr:uid="{C0F53C5F-A4B6-E944-AB37-2D40F83B27B9}">
+      <text>
+        <t xml:space="preserve">[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+     商品房/动迁房/商住/其他 </t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="5" shapeId="0" xr:uid="{96720DDB-E74E-3F47-9177-B00C64D1A29D}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    总户数</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="6" shapeId="0" xr:uid="{81A2E5F7-E683-2748-888D-ECAD47E5EEA7}">
+      <text>
+        <t xml:space="preserve">[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+     年份(1900-2024) </t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="7" shapeId="0" xr:uid="{075C307F-4675-9440-8E98-141913CDB323}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+     详细地址</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">name* </t>
   </si>
@@ -50,9 +131,6 @@
     <t xml:space="preserve"> building_type </t>
   </si>
   <si>
-    <t xml:space="preserve"> property_rights </t>
-  </si>
-  <si>
     <t xml:space="preserve"> total_houses </t>
   </si>
   <si>
@@ -75,36 +153,13 @@
   </si>
   <si>
     <t xml:space="preserve"> 浦东新区张江高科技园区科苑路100号</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 板楼/塔楼/板塔结合 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 商品房/动迁房/商住/其他 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 数字 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 年份(1900-2024) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 详细地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小区名/必填 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 区域/必填 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 浦东</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 商圈/必填 </t>
+    <t xml:space="preserve"> property_rights </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,7 +167,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -127,6 +182,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,6 +232,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName=" " id="{58D07FAF-5491-D34F-A961-72A6AEFD7385}" userId="S::user2913@edu365.site::1bf1f663-af04-4b1e-bc70-16d19acdc349" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -487,12 +555,41 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2025-02-17T02:36:10.21" personId="{58D07FAF-5491-D34F-A961-72A6AEFD7385}" id="{8C57E628-D146-CD4E-A6FF-7F6380D205B6}">
+    <text xml:space="preserve">小区名/必填 </text>
+  </threadedComment>
+  <threadedComment ref="B1" dT="2025-02-17T02:36:22.58" personId="{58D07FAF-5491-D34F-A961-72A6AEFD7385}" id="{ED0A3ACE-36D1-414E-AB10-697DE4F4F867}">
+    <text xml:space="preserve"> 区域/必填 </text>
+  </threadedComment>
+  <threadedComment ref="C1" dT="2025-02-17T02:36:33.63" personId="{58D07FAF-5491-D34F-A961-72A6AEFD7385}" id="{4B6E0766-6359-A94D-80B3-B5A072BAA3A5}">
+    <text xml:space="preserve"> 商圈/必填 </text>
+  </threadedComment>
+  <threadedComment ref="D1" dT="2025-02-17T02:36:43.25" personId="{58D07FAF-5491-D34F-A961-72A6AEFD7385}" id="{782F2DC3-2A15-1344-B201-40F082B30719}">
+    <text xml:space="preserve"> 板楼/塔楼/板塔结合 </text>
+  </threadedComment>
+  <threadedComment ref="E1" dT="2025-02-17T02:36:53.83" personId="{58D07FAF-5491-D34F-A961-72A6AEFD7385}" id="{C0F53C5F-A4B6-E944-AB37-2D40F83B27B9}">
+    <text xml:space="preserve"> 商品房/动迁房/商住/其他 </text>
+  </threadedComment>
+  <threadedComment ref="F1" dT="2025-02-17T02:37:22.84" personId="{58D07FAF-5491-D34F-A961-72A6AEFD7385}" id="{96720DDB-E74E-3F47-9177-B00C64D1A29D}">
+    <text>总户数</text>
+  </threadedComment>
+  <threadedComment ref="G1" dT="2025-02-17T02:37:36.41" personId="{58D07FAF-5491-D34F-A961-72A6AEFD7385}" id="{81A2E5F7-E683-2748-888D-ECAD47E5EEA7}">
+    <text xml:space="preserve"> 年份(1900-2024) </text>
+  </threadedComment>
+  <threadedComment ref="H1" dT="2025-02-17T02:37:45.53" personId="{58D07FAF-5491-D34F-A961-72A6AEFD7385}" id="{075C307F-4675-9440-8E98-141913CDB323}">
+    <text xml:space="preserve"> 详细地址</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7872A2-D132-8A4C-9FBB-761A44041647}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7872A2-D132-8A4C-9FBB-761A44041647}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -511,33 +608,33 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
       </c>
       <c r="F2">
         <v>1000</v>
@@ -546,37 +643,12 @@
         <v>2010</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>